--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\programmering\MaltMadness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746CF44-806F-4C77-9E93-75B7638220C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5F9D5-CB06-4622-AB92-F73687BE7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -59,6 +59,48 @@
   </si>
   <si>
     <t>ABSURD</t>
+  </si>
+  <si>
+    <t>Hvad fuck sker der her</t>
+  </si>
+  <si>
+    <t>Ingen ved det</t>
+  </si>
+  <si>
+    <t>Alle vil vide det</t>
+  </si>
+  <si>
+    <t>Find selv ud af det</t>
+  </si>
+  <si>
+    <t>Fire jo</t>
+  </si>
+  <si>
+    <t>Gustav er fuldstændig uden for pedagogisk rækkeviede?</t>
+  </si>
+  <si>
+    <t>Yeps</t>
+  </si>
+  <si>
+    <t>Joooeh</t>
+  </si>
+  <si>
+    <t>Helt 100</t>
+  </si>
+  <si>
+    <t>Selvfølgelig</t>
+  </si>
+  <si>
+    <t>Hvor meget vejer det tungeste gram?</t>
+  </si>
+  <si>
+    <t>Mindst 5 ihvertfald</t>
+  </si>
+  <si>
+    <t>måske et helt</t>
+  </si>
+  <si>
+    <t>omtrænt ligeså meget som min højre nos</t>
   </si>
 </sst>
 </file>
@@ -376,23 +418,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -429,6 +471,66 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
@@ -443,7 +545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5F9D5-CB06-4622-AB92-F73687BE7BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A047E-E916-422D-A9C1-FE6F7A9E9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
     <sheet name="alko" sheetId="2" r:id="rId2"/>
+    <sheet name="sode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -101,14 +102,61 @@
   </si>
   <si>
     <t>omtrænt ligeså meget som min højre nos</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Alkohol</t>
+  </si>
+  <si>
+    <t>Opblanding</t>
+  </si>
+  <si>
+    <t>Applesinjuice</t>
+  </si>
+  <si>
+    <t>Kakao</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Gazoz</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>Hvidrom</t>
+  </si>
+  <si>
+    <t>Små Sure</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Tonic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,8 +184,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,12 +590,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4947EF9-1F32-4373-875C-0B469E94E8FE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE5E166-630D-446A-843C-8792D2283430}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A047E-E916-422D-A9C1-FE6F7A9E9013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42CC4E-9D74-4FC9-B5B4-C397EE9759DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
     <sheet name="alko" sheetId="2" r:id="rId2"/>
     <sheet name="sode" sheetId="3" r:id="rId3"/>
+    <sheet name="roasts" sheetId="4" r:id="rId4"/>
+    <sheet name="players" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -141,6 +143,39 @@
   </si>
   <si>
     <t>Tonic</t>
+  </si>
+  <si>
+    <t>playerID</t>
+  </si>
+  <si>
+    <t>Roast</t>
+  </si>
+  <si>
+    <t>Navn</t>
+  </si>
+  <si>
+    <t>Alder</t>
+  </si>
+  <si>
+    <t>Køn</t>
+  </si>
+  <si>
+    <t>Networth</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Mand</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Sus</t>
   </si>
 </sst>
 </file>
@@ -592,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4947EF9-1F32-4373-875C-0B469E94E8FE}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,4 +722,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498D84-E07C-43BD-86A1-84DD25E5001E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2349D-0664-4FC8-9C83-F9C5C9C53257}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C42CC4E-9D74-4FC9-B5B4-C397EE9759DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3177EC-A53D-4A8F-BD1E-E706EA0A3E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Sus</t>
+  </si>
+  <si>
+    <t>Du er sp fucking fattig at du ikke kan tro på det</t>
+  </si>
+  <si>
+    <t>Hvem tror du seriøst du er? Du kan ikke engang sluge 15 centicubes på 12 minutter og det kan jeg</t>
+  </si>
+  <si>
+    <t>du er flink nok når du ikke snakker</t>
   </si>
 </sst>
 </file>
@@ -726,10 +735,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498D84-E07C-43BD-86A1-84DD25E5001E}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -740,6 +749,30 @@
       </c>
       <c r="B1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2349D-0664-4FC8-9C83-F9C5C9C53257}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\GitHub\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3177EC-A53D-4A8F-BD1E-E706EA0A3E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C729E5-9F9B-4097-9D31-9A4055706E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -185,6 +185,201 @@
   </si>
   <si>
     <t>du er flink nok når du ikke snakker</t>
+  </si>
+  <si>
+    <t>Hvem simper dani mani hani fani mest for?</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Hvem uwu senpai Gustav?</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Øl</t>
+  </si>
+  <si>
+    <t>sorte mænd?!?!</t>
+  </si>
+  <si>
+    <t>Gustav elsker</t>
+  </si>
+  <si>
+    <t>Dani homo</t>
+  </si>
+  <si>
+    <t>Who where when whenever?</t>
+  </si>
+  <si>
+    <t>Elsker store mænd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hvem er Øliver? </t>
+  </si>
+  <si>
+    <t>Hvem er Nybryg?</t>
+  </si>
+  <si>
+    <t>Hvorfor spiller vi Jeopardy?</t>
+  </si>
+  <si>
+    <t>homo</t>
+  </si>
+  <si>
+    <t>overwatch</t>
+  </si>
+  <si>
+    <t>valorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leauge of legendt </t>
+  </si>
+  <si>
+    <t>Hvem er Daniøl?</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>hvad ffalder først fjer eller hammer?</t>
+  </si>
+  <si>
+    <t>fjer</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>ikke den her</t>
+  </si>
+  <si>
+    <t>jeg havde for mange muligheder</t>
+  </si>
+  <si>
+    <t>hvorfor dani pandi?</t>
+  </si>
+  <si>
+    <t>højeste</t>
+  </si>
+  <si>
+    <t>laveste</t>
+  </si>
+  <si>
+    <t>femogtrediveenhalvdecimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bare lad hende drikke fordi hun er </t>
+  </si>
+  <si>
+    <t>suuuuuurrrr</t>
+  </si>
+  <si>
+    <t>suarrrrrrrr</t>
+  </si>
+  <si>
+    <t>en murrrr</t>
+  </si>
+  <si>
+    <t>dinmourrr</t>
+  </si>
+  <si>
+    <t>fede sko på</t>
+  </si>
+  <si>
+    <t>hvid hat på</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ro på smølf kommer ind med </t>
+  </si>
+  <si>
+    <t>din mor bro</t>
+  </si>
+  <si>
+    <t>en grim ko bro</t>
+  </si>
+  <si>
+    <t>do penguins have knees?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>neegar</t>
+  </si>
+  <si>
+    <t>jeg havde endnu en gang brug for et svar</t>
+  </si>
+  <si>
+    <t>What’s the weirdest picture in your camera roll?</t>
+  </si>
+  <si>
+    <t>hold kæft</t>
+  </si>
+  <si>
+    <t>ti still</t>
+  </si>
+  <si>
+    <t>shut up</t>
+  </si>
+  <si>
+    <t>den Mund halten</t>
+  </si>
+  <si>
+    <t>absolut dummeste person jeg kender</t>
+  </si>
+  <si>
+    <t>dniæl</t>
+  </si>
+  <si>
+    <t>kempol</t>
+  </si>
+  <si>
+    <t>pedeedde</t>
+  </si>
+  <si>
+    <t>næh</t>
+  </si>
+  <si>
+    <t>SKÅL</t>
+  </si>
+  <si>
+    <t>Alle skal skål</t>
+  </si>
+  <si>
+    <t>det er ikke et spørgsmål</t>
+  </si>
+  <si>
+    <t xml:space="preserve">og det er ikke et svar </t>
+  </si>
+  <si>
+    <t>stop med at tænke, drik</t>
+  </si>
+  <si>
+    <t>hvor meget vejer et bræt</t>
+  </si>
+  <si>
+    <t>mindst 8</t>
+  </si>
+  <si>
+    <t>træ</t>
+  </si>
+  <si>
+    <t>danis vildeste CRUSH (jeg det kalder vi det ti stille)</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Kempel</t>
+  </si>
+  <si>
+    <t>Din mor</t>
   </si>
 </sst>
 </file>
@@ -511,23 +706,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -567,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -587,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -607,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -625,6 +820,306 @@
       </c>
       <c r="F5">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -640,38 +1135,38 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -687,42 +1182,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -737,13 +1232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498D84-E07C-43BD-86A1-84DD25E5001E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -751,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -759,7 +1254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -767,7 +1262,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -788,9 +1283,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -804,7 +1299,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -818,7 +1313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -832,7 +1327,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3177EC-A53D-4A8F-BD1E-E706EA0A3E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49AA1B4-A73F-4AD9-8762-75905A060034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="22540" windowHeight="14300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>du er flink nok når du ikke snakker</t>
+  </si>
+  <si>
+    <t>hehehe prut</t>
+  </si>
+  <si>
+    <t>du er dum og grim</t>
+  </si>
+  <si>
+    <t>hej med dig</t>
+  </si>
+  <si>
+    <t>sån er det bare</t>
   </si>
 </sst>
 </file>
@@ -735,10 +747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498D84-E07C-43BD-86A1-84DD25E5001E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -773,6 +785,38 @@
       </c>
       <c r="B4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +829,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\GitHub\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C729E5-9F9B-4097-9D31-9A4055706E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4613C4-2D27-4A99-AF6B-A726D3FEC576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -380,6 +380,162 @@
   </si>
   <si>
     <t>Din mor</t>
+  </si>
+  <si>
+    <t>hvilken af disse sange har nesting lavet</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>Byggemand</t>
+  </si>
+  <si>
+    <t>Prostittueret</t>
+  </si>
+  <si>
+    <t>I svenskland er jeg født, der har jeg hjemme</t>
+  </si>
+  <si>
+    <t>hvor mange drops kan man få fra en nether skeleton farm</t>
+  </si>
+  <si>
+    <t>12700 I timen</t>
+  </si>
+  <si>
+    <t>1200 I timen</t>
+  </si>
+  <si>
+    <t>jeg har et liv taberr</t>
+  </si>
+  <si>
+    <t>jeg har ikke noget liv derfor ved jeg det her</t>
+  </si>
+  <si>
+    <t>Do car tires get tired?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hold nu kæft </t>
+  </si>
+  <si>
+    <t>ikke en af dem her iegn</t>
+  </si>
+  <si>
+    <t>hehehe tire og tired minder jo om hinanden</t>
+  </si>
+  <si>
+    <t>once again jeg har for magne svar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hvad smager sten af </t>
+  </si>
+  <si>
+    <t>sten</t>
+  </si>
+  <si>
+    <t>steen</t>
+  </si>
+  <si>
+    <t>jeg var et normalt barn og derfor ved jeg intet</t>
+  </si>
+  <si>
+    <t>stop, pls, få normale spørgsmål</t>
+  </si>
+  <si>
+    <t>It gymnasiet I Silkeborg</t>
+  </si>
+  <si>
+    <t>Jamen MOAAR hvad er det?!</t>
+  </si>
+  <si>
+    <t>Hardcore kode</t>
+  </si>
+  <si>
+    <t>FED GRAFIK!</t>
+  </si>
+  <si>
+    <t>Street Kredit</t>
+  </si>
+  <si>
+    <t>bedste børneserie</t>
+  </si>
+  <si>
+    <t>teletubbies</t>
+  </si>
+  <si>
+    <t>den lille røde traktor</t>
+  </si>
+  <si>
+    <t>traktor tom</t>
+  </si>
+  <si>
+    <t>brum (what the actual fuck is this trash)</t>
+  </si>
+  <si>
+    <t>moaar jeg er færdig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238 ml vodka </t>
+  </si>
+  <si>
+    <t>31 ml coca cola</t>
+  </si>
+  <si>
+    <t>hva?</t>
+  </si>
+  <si>
+    <t>vodka 9 ml</t>
+  </si>
+  <si>
+    <t>When the sun sets is it because it’s shy and hiding away?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ti nu stille </t>
+  </si>
+  <si>
+    <t>jeg gider ikke de her spørgsmål</t>
+  </si>
+  <si>
+    <t>ti nu stille idiot</t>
+  </si>
+  <si>
+    <t>:(</t>
+  </si>
+  <si>
+    <t>bedste pizza hos pizzamaster</t>
+  </si>
+  <si>
+    <t>nr 34 med remonce</t>
+  </si>
+  <si>
+    <t>flamingo pizza I silkeborg</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>nej</t>
+  </si>
+  <si>
+    <t>det er en front for hvidvask og børnearbejde</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t>afstem denne redox reaktion I-(aq) + Cr2O7^2-(aq)</t>
+  </si>
+  <si>
+    <t>jeg fik -3 I kemi b</t>
+  </si>
+  <si>
+    <t>nej jeg drikekr hold nu kæft</t>
+  </si>
+  <si>
+    <t>godnat daniel du har skole I morgen</t>
+  </si>
+  <si>
+    <t>:((((((((((((((</t>
   </si>
 </sst>
 </file>
@@ -706,18 +862,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.77734375" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
@@ -1120,6 +1276,223 @@
       </c>
       <c r="F20">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>19</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\GitHub\MaltMadness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4613C4-2D27-4A99-AF6B-A726D3FEC576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F5EE8-601D-4E18-8E3A-3BF1D37C3026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>:((((((((((((((</t>
+  </si>
+  <si>
+    <t>hehehe prut</t>
+  </si>
+  <si>
+    <t>du er dum og grim</t>
+  </si>
+  <si>
+    <t>hej med dig</t>
+  </si>
+  <si>
+    <t>sån er det bare</t>
   </si>
 </sst>
 </file>
@@ -864,21 +876,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -918,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -938,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -958,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -978,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1198,7 +1210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1238,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1298,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -1458,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -1508,38 +1520,38 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1555,42 +1567,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1603,15 +1615,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74498D84-E07C-43BD-86A1-84DD25E5001E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1635,12 +1647,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1652,13 +1696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2349D-0664-4FC8-9C83-F9C5C9C53257}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1672,7 +1716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1744,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F5EE8-601D-4E18-8E3A-3BF1D37C3026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E600C92-4D86-4C2F-B2AB-7E69B31B9298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1505,6 +1505,9 @@
       </c>
       <c r="E31" t="s">
         <v>168</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2349D-0664-4FC8-9C83-F9C5C9C53257}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/slayysaft.xlsx
+++ b/slayysaft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olive\Desktop\Programmering\MaltMadness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Desktop\GitHub\MaltMadness\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F5EE8-601D-4E18-8E3A-3BF1D37C3026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1F2AF-DE03-4CAB-942E-BD64812EE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hva" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="182">
   <si>
     <t>SPØRGSMÅL</t>
   </si>
@@ -548,6 +548,33 @@
   </si>
   <si>
     <t>sån er det bare</t>
+  </si>
+  <si>
+    <t>yodeliu</t>
+  </si>
+  <si>
+    <t>eminems</t>
+  </si>
+  <si>
+    <t>rihanna</t>
+  </si>
+  <si>
+    <t>taytay swiftie &lt;3</t>
+  </si>
+  <si>
+    <t>danis placering I DDC NATIONALS</t>
+  </si>
+  <si>
+    <t>absurd dårlig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absurd dårlig </t>
+  </si>
+  <si>
+    <t>ABSURD DÅRLIG</t>
+  </si>
+  <si>
+    <t>mr verdensrund mr 305</t>
   </si>
 </sst>
 </file>
@@ -874,23 +901,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="56.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -930,7 +957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -950,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -970,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1010,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1030,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1050,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1070,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1090,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1130,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1150,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1170,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1190,7 +1217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -1270,7 +1297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -1290,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -1330,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -1350,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -1370,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -1430,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -1470,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>159</v>
       </c>
@@ -1490,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -1505,6 +1532,49 @@
       </c>
       <c r="E31" t="s">
         <v>168</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1520,38 +1590,38 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1567,42 +1637,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1621,9 +1691,9 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1631,7 +1701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1639,7 +1709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1647,7 +1717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1655,7 +1725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1663,7 +1733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1671,7 +1741,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1679,7 +1749,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1696,13 +1766,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2349D-0664-4FC8-9C83-F9C5C9C53257}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1716,7 +1786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1744,7 +1814,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
